--- a/viettel_ns/Report_ExcelFrom/QLNH/rpt_ThucHienNganSach_GiaiDoanTo2.xlsx
+++ b/viettel_ns/Report_ExcelFrom/QLNH/rpt_ThucHienNganSach_GiaiDoanTo2.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
   <si>
     <t>Configuration Sheet</t>
   </si>
@@ -133,12 +133,6 @@
     <t>`</t>
   </si>
   <si>
-    <t>&lt;#lstGiaiDoanKinhPhiDaGiaiNgan.valueVND&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#lstGiaiDoanKinhPhiDaGiaiNgan.valueUSD&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
     <t>&lt;#lstGiaiDoan3.sGiaiDoan&gt;&lt;#AltFormat&gt;</t>
   </si>
   <si>
@@ -148,28 +142,7 @@
     <t>fmNumberBold</t>
   </si>
   <si>
-    <t>fmTextBold</t>
-  </si>
-  <si>
-    <t>&lt;#dt.sTenCDT&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#dt.fDeNghiQTNamNay_USD&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#dt.fDeNghiQTNamNay_VND&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#dt.depth&gt;&lt;#AltFormat&gt; &lt;#dt.sTenNoiDungChi&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
     <t>&lt;#dt.KeHoachGiaiNgan&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#dt.KinhPhiChuaQuyetToanVND&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#dt.KinhPhiChuaQuyetToanUSD&gt;&lt;#AltFormat&gt;</t>
   </si>
   <si>
     <r>
@@ -201,12 +174,72 @@
   <si>
     <t>&lt;#listColumn.sGiaiDoan&gt;&lt;#AltFormat&gt;</t>
   </si>
+  <si>
+    <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#dt.depth&gt; &lt;#dt.sTenNoiDungChi&gt;&lt;#AltFormatLeftBold&gt;;&lt;#dt.depth&gt; &lt;#dt.sTenNoiDungChi&gt;&lt;#AltFormatLeft&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#dt.sTenCDT&gt;&lt;#AltFormatLeftBold&gt;;&lt;#dt.sTenCDT&gt;&lt;#AltFormatLeft&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#dt.KinhPhiChuaQuyetToanUSD&gt;&lt;#AltFormatLeftBold&gt;;&lt;#dt.KinhPhiChuaQuyetToanUSD&gt;&lt;#AltFormatLeft&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#dt.KinhPhiChuaQuyetToanVND&gt;&lt;#AltFormatLeftBold&gt;;&lt;#dt.KinhPhiChuaQuyetToanVND&gt;&lt;#AltFormatLeft&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#dt.fDeNghiQTNamNay_VND&gt;&lt;#AltFormatLeftBold&gt;;&lt;#dt.fDeNghiQTNamNay_VND&gt;&lt;#AltFormatLeft&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#dt.fDeNghiQTNamNay_USD&gt;&lt;#AltFormatLeftBold&gt;;&lt;#dt.fDeNghiQTNamNay_USD&gt;&lt;#AltFormatLeft&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#lstGiaiDoanKinhPhiDaGiaiNgan.valueUSD&gt;&lt;#AltFormatLeftBold&gt;;&lt;#lstGiaiDoanKinhPhiDaGiaiNgan.valueUSD&gt;&lt;#AltFormatLeft&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#lstGiaiDoanKinhPhiDaGiaiNgan.valueVND&gt;&lt;#AltFormatLeftBold&gt;;&lt;#lstGiaiDoanKinhPhiDaGiaiNgan.valueVND&gt;&lt;#AltFormatLeft&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>fmCellLeft</t>
+  </si>
+  <si>
+    <t>AltFormatLeft</t>
+  </si>
+  <si>
+    <t>&lt;#format cell(fmCellLeft)&gt;&lt;#Row height(Autofit; 120)&gt;</t>
+  </si>
+  <si>
+    <t>fmCellCenter</t>
+  </si>
+  <si>
+    <t>AltFormatCenter</t>
+  </si>
+  <si>
+    <t>&lt;#format cell(fmCellCenter)&gt;&lt;#Row height(Autofit; 120)&gt;</t>
+  </si>
+  <si>
+    <t>fmCellLeftBold</t>
+  </si>
+  <si>
+    <t>AltFormatLeftBold</t>
+  </si>
+  <si>
+    <t>&lt;#format cell(fmCellLeftBold)&gt;&lt;#Row height(Autofit; 120)&gt;</t>
+  </si>
+  <si>
+    <t>fmCellCenterBold</t>
+  </si>
+  <si>
+    <t>AltFormatCenterBold</t>
+  </si>
+  <si>
+    <t>&lt;#format cell(fmCellCenterBold)&gt;&lt;#Row height(Autofit; 120)&gt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,6 +319,26 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -414,7 +467,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -462,14 +515,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -497,26 +545,50 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -527,12 +599,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -822,7 +888,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="20" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,15 +912,15 @@
   <sheetData>
     <row r="1" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="23"/>
-      <c r="C1" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
+      <c r="C1" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
       <c r="J1" s="21"/>
       <c r="K1" s="21"/>
       <c r="L1" s="21"/>
@@ -862,24 +928,24 @@
     </row>
     <row r="2" spans="1:13" s="13" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B2" s="23"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
       <c r="M2" s="21"/>
     </row>
     <row r="3" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
-        <v>47</v>
+      <c r="A3" s="31" t="s">
+        <v>38</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -908,141 +974,141 @@
     </row>
     <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="16"/>
-      <c r="C5" s="50" t="s">
-        <v>45</v>
+      <c r="C5" s="39" t="s">
+        <v>36</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
       <c r="M5" s="16"/>
     </row>
     <row r="6" spans="1:13" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="43" t="s">
+      <c r="D6" s="54"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43" t="s">
+      <c r="H6" s="52"/>
+      <c r="I6" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
     </row>
     <row r="7" spans="1:13" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43" t="s">
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
     </row>
     <row r="8" spans="1:13" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="38" t="s">
+      <c r="A8" s="52"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="G8" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="38" t="s">
+      <c r="H8" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="38" t="s">
+      <c r="I8" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
     </row>
     <row r="9" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
     </row>
     <row r="10" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
+      <c r="H10" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
     </row>
     <row r="11" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
@@ -1081,32 +1147,32 @@
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
       <c r="J13" s="23"/>
       <c r="K13" s="23"/>
       <c r="L13" s="23"/>
       <c r="M13" s="23"/>
     </row>
     <row r="14" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
       <c r="J14" s="22"/>
       <c r="K14" s="22"/>
       <c r="L14" s="22"/>
       <c r="M14" s="22"/>
     </row>
     <row r="15" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="46"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="G15" s="15"/>
@@ -1147,7 +1213,7 @@
     </row>
     <row r="18" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="15"/>
@@ -1352,10 +1418,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:V13"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1542,35 +1608,86 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="H10" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="26" t="s">
-        <v>35</v>
+      <c r="H10" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>33</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="25" t="s">
-        <v>34</v>
+      <c r="N10" s="41" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="27" t="s">
+      <c r="I11" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
+      <c r="N11" s="44"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H12" s="42"/>
+      <c r="I12" s="45"/>
     </row>
     <row r="13" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="H13" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" s="28" t="s">
-        <v>36</v>
+      <c r="H13" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="M13" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="N13" s="41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H14" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H15" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="M15" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="N15" s="41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H16" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="M16" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="N16" s="41" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/viettel_ns/Report_ExcelFrom/QLNH/rpt_ThucHienNganSach_GiaiDoanTo2.xlsx
+++ b/viettel_ns/Report_ExcelFrom/QLNH/rpt_ThucHienNganSach_GiaiDoanTo2.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="67">
   <si>
     <t>Configuration Sheet</t>
   </si>
@@ -184,21 +184,12 @@
     <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#dt.KinhPhiChuaQuyetToanUSD&gt;&lt;#AltFormatLeftBold&gt;;&lt;#dt.KinhPhiChuaQuyetToanUSD&gt;&lt;#AltFormatLeft&gt;)&gt;</t>
   </si>
   <si>
-    <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#dt.KinhPhiChuaQuyetToanVND&gt;&lt;#AltFormatLeftBold&gt;;&lt;#dt.KinhPhiChuaQuyetToanVND&gt;&lt;#AltFormatLeft&gt;)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#dt.fDeNghiQTNamNay_VND&gt;&lt;#AltFormatLeftBold&gt;;&lt;#dt.fDeNghiQTNamNay_VND&gt;&lt;#AltFormatLeft&gt;)&gt;</t>
-  </si>
-  <si>
     <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#dt.fDeNghiQTNamNay_USD&gt;&lt;#AltFormatLeftBold&gt;;&lt;#dt.fDeNghiQTNamNay_USD&gt;&lt;#AltFormatLeft&gt;)&gt;</t>
   </si>
   <si>
     <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#lstGiaiDoanKinhPhiDaGiaiNgan.valueUSD&gt;&lt;#AltFormatLeftBold&gt;;&lt;#lstGiaiDoanKinhPhiDaGiaiNgan.valueUSD&gt;&lt;#AltFormatLeft&gt;)&gt;</t>
   </si>
   <si>
-    <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#lstGiaiDoanKinhPhiDaGiaiNgan.valueVND&gt;&lt;#AltFormatLeftBold&gt;;&lt;#lstGiaiDoanKinhPhiDaGiaiNgan.valueVND&gt;&lt;#AltFormatLeft&gt;)&gt;</t>
-  </si>
-  <si>
     <t>fmCellLeft</t>
   </si>
   <si>
@@ -233,6 +224,33 @@
   </si>
   <si>
     <t>&lt;#format cell(fmCellCenterBold)&gt;&lt;#Row height(Autofit; 120)&gt;</t>
+  </si>
+  <si>
+    <t>fmCellLeftVND</t>
+  </si>
+  <si>
+    <t>AltFormatLeftVND</t>
+  </si>
+  <si>
+    <t>&lt;#format cell(fmCellLeftVND)&gt;&lt;#Row height(Autofit; 120)&gt;</t>
+  </si>
+  <si>
+    <t>fmCellLeftBoldVND</t>
+  </si>
+  <si>
+    <t>AltFormatLeftBoldVND</t>
+  </si>
+  <si>
+    <t>&lt;#format cell(fmCellLeftBoldVND)&gt;&lt;#Row height(Autofit; 120)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#dt.fDeNghiQTNamNay_VND&gt;&lt;#AltFormatLeftBoldVND&gt;;&lt;#dt.fDeNghiQTNamNay_VND&gt;&lt;#AltFormatLeftVND&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#lstGiaiDoanKinhPhiDaGiaiNgan.valueVND&gt;&lt;#AltFormatLeftBoldVND&gt;;&lt;#lstGiaiDoanKinhPhiDaGiaiNgan.valueVND&gt;&lt;#AltFormatLeftVND&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#dt.KinhPhiChuaQuyetToanVND&gt;&lt;#AltFormatLeftBoldVND&gt;;&lt;#dt.KinhPhiChuaQuyetToanVND&gt;&lt;#AltFormatLeftVND&gt;)&gt;</t>
   </si>
 </sst>
 </file>
@@ -467,7 +485,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -560,24 +578,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -599,6 +602,31 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -887,8 +915,8 @@
   </sheetPr>
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="20" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="20" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,23 +1016,23 @@
       <c r="M5" s="16"/>
     </row>
     <row r="6" spans="1:13" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="52" t="s">
+      <c r="D6" s="47"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52" t="s">
+      <c r="H6" s="45"/>
+      <c r="I6" s="45" t="s">
         <v>29</v>
       </c>
       <c r="J6" s="27"/>
@@ -1013,46 +1041,46 @@
       <c r="M6" s="27"/>
     </row>
     <row r="7" spans="1:13" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52" t="s">
+      <c r="A7" s="45"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52" t="s">
+      <c r="D7" s="45"/>
+      <c r="E7" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
       <c r="L7" s="27"/>
       <c r="M7" s="27"/>
     </row>
     <row r="8" spans="1:13" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="52"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="50" t="s">
+      <c r="A8" s="45"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="50" t="s">
+      <c r="G8" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="50" t="s">
+      <c r="H8" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="50" t="s">
+      <c r="I8" s="43" t="s">
         <v>22</v>
       </c>
       <c r="J8" s="27"/>
@@ -1061,17 +1089,17 @@
       <c r="M8" s="27"/>
     </row>
     <row r="9" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="52"/>
-      <c r="B9" s="52"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
       <c r="J9" s="28"/>
       <c r="K9" s="28"/>
       <c r="L9" s="28"/>
@@ -1085,22 +1113,22 @@
         <v>42</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D10" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="33" t="s">
-        <v>47</v>
-      </c>
       <c r="F10" s="30" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="G10" s="32" t="s">
         <v>43</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="I10" s="32" t="s">
         <v>34</v>
@@ -1147,9 +1175,9 @@
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
       <c r="J13" s="23"/>
       <c r="K13" s="23"/>
       <c r="L13" s="23"/>
@@ -1160,19 +1188,19 @@
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
       <c r="J14" s="22"/>
       <c r="K14" s="22"/>
       <c r="L14" s="22"/>
       <c r="M14" s="22"/>
     </row>
     <row r="15" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="55"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="G15" s="15"/>
@@ -1418,10 +1446,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="H10" sqref="H10:S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1608,7 +1636,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="H10" s="40" t="s">
+      <c r="H10" s="51" t="s">
         <v>33</v>
       </c>
       <c r="I10" s="25" t="s">
@@ -1617,77 +1645,105 @@
       <c r="M10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="41" t="s">
+      <c r="N10" s="52" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H11" s="42" t="s">
+    <row r="11" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="H11" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="43" t="s">
+      <c r="I11" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="N11" s="44"/>
+      <c r="N11" s="41"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H12" s="42"/>
-      <c r="I12" s="45"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="42"/>
     </row>
     <row r="13" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="H13" s="40" t="s">
+      <c r="H13" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="M13" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="N13" s="52" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="H14" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="I13" s="46" t="s">
+      <c r="I14" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="M13" s="41" t="s">
+      <c r="M14" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="N13" s="41" t="s">
+      <c r="N14" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="H14" s="40" t="s">
+    <row r="15" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="H15" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="I14" s="47" t="s">
+      <c r="I15" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="M14" s="12" t="s">
+      <c r="M15" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="N14" s="12" t="s">
+      <c r="N15" s="52" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="H15" s="40" t="s">
+    <row r="16" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="H16" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="I15" s="48" t="s">
+      <c r="I16" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="M15" s="41" t="s">
+      <c r="M16" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="N15" s="41" t="s">
+      <c r="N16" s="52" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="H16" s="40" t="s">
+    <row r="17" spans="8:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="H17" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="I16" s="49" t="s">
+      <c r="I17" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="M16" s="41" t="s">
+      <c r="M17" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="N16" s="41" t="s">
+      <c r="N17" s="52" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="8:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="H18" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="M18" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="N18" s="52" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
